--- a/resourse/student-data.xlsx
+++ b/resourse/student-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\priya\sts-workspace\skill-enhancer-boot\resourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\priya\sts-workspace\boot\skill-enhancer-boot\resourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,12 +1075,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1216,15 +1213,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D468E54-E223-4DCF-A6A1-37256A073C88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15BBF4B9-A70F-49FC-B352-8290B900039D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1248,17 +1256,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15BBF4B9-A70F-49FC-B352-8290B900039D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D468E54-E223-4DCF-A6A1-37256A073C88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>